--- a/.5 sem 21 fall/._электрические машины/_курсовой/2_tayulttsa__kopia.xlsx
+++ b/.5 sem 21 fall/._электрические машины/_курсовой/2_tayulttsa__kopia.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCF098-E471-487B-8F3E-B87B5A148892}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF276B4-5BF9-4342-B44A-DD97E37D54A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13908" windowHeight="5568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Расчетная формула</t>
   </si>
@@ -70,6 +69,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>hc</t>
   </si>
 </sst>
 </file>
@@ -118,7 +120,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -133,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -277,11 +279,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,9 +337,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,6 +345,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -344,10 +370,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,10 +509,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
@@ -501,13 +536,13 @@
                   <c:v>5.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.01</c:v>
+                  <c:v>5.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,10 +849,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
@@ -841,13 +876,13 @@
                   <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3029999999999999</c:v>
+                  <c:v>2.3260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2709999999999999</c:v>
+                  <c:v>2.2909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.105</c:v>
+                  <c:v>2.052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,15 +2193,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>716280</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1432560</xdr:colOff>
+          <xdr:colOff>1428750</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2214,13 +2249,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>685800</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1112520</xdr:colOff>
+          <xdr:colOff>1114425</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2266,15 +2301,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>350520</xdr:rowOff>
+          <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2320,15 +2355,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>175260</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>480060</xdr:rowOff>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>89338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1592580</xdr:colOff>
+          <xdr:colOff>1590675</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>3284</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2374,15 +2409,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1409700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2430,13 +2465,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1531620</xdr:colOff>
+          <xdr:colOff>1533525</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>335280</xdr:rowOff>
+          <xdr:rowOff>333375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2482,15 +2517,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>373380</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>312420</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2538,11 +2573,11 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1661160</xdr:colOff>
+          <xdr:colOff>1657350</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2590,13 +2625,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>1668780</xdr:colOff>
+          <xdr:colOff>1666875</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>609600</xdr:rowOff>
         </xdr:to>
@@ -3071,8 +3106,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1695450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>303425</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3157,8 +3192,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69134</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1790203</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
@@ -3679,19 +3714,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +3753,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="16"/>
       <c r="C2" s="8">
@@ -3730,12 +3766,12 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="G2" s="14">
         <v>0.2</v>
       </c>
-      <c r="G2" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>0.1</v>
       </c>
       <c r="I2" s="4"/>
@@ -3749,28 +3785,28 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="21">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.67</v>
-      </c>
-      <c r="G3" s="21">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0.432</v>
+        <v>1.972</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1.764</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1.444</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.624</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3783,28 +3819,28 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.18</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.125</v>
-      </c>
-      <c r="H4" s="23">
-        <v>3.1E-2</v>
+      <c r="C4" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.27</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.13500000000000001</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3813,32 +3849,32 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22">
-        <v>1.042</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1.02</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1.01</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1.006</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.98899999999999999</v>
+      <c r="C5" s="23">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1.169</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1.079</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -3851,28 +3887,28 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22">
-        <v>1.028</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1.008</v>
-      </c>
-      <c r="G6" s="22">
-        <v>1.004</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.99299999999999999</v>
+      <c r="C6" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1.266</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1.242</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1.242</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1.054</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3885,27 +3921,27 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="D7" s="22">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="E7" s="22">
-        <v>2.383</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2.379</v>
-      </c>
-      <c r="G7" s="22">
-        <v>2.371</v>
-      </c>
-      <c r="H7" s="22">
-        <v>2.3439999999999999</v>
+      <c r="C7" s="23">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.59699999999999998</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3918,30 +3954,30 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22">
-        <v>0.93</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.94</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.96</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="C8" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="H8" s="25">
         <v>0.98</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.99</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3954,28 +3990,28 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.81799999999999995</v>
+      <c r="C9" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.84699999999999998</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3988,28 +4024,28 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="22">
-        <v>8.0619999999999994</v>
-      </c>
-      <c r="D10" s="22">
-        <v>8.0739999999999998</v>
-      </c>
-      <c r="E10" s="22">
-        <v>8.0980000000000008</v>
-      </c>
-      <c r="F10" s="22">
-        <v>8.109</v>
-      </c>
-      <c r="G10" s="22">
-        <v>8.1210000000000004</v>
-      </c>
-      <c r="H10" s="23">
-        <v>8.1329999999999991</v>
+      <c r="C10" s="23">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="G10" s="24">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2.5059999999999998</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -4022,28 +4058,28 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="22">
-        <v>6.3179999999999996</v>
-      </c>
-      <c r="D11" s="22">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="E11" s="22">
-        <v>6.5519999999999996</v>
-      </c>
-      <c r="F11" s="22">
-        <v>6.9779999999999998</v>
-      </c>
-      <c r="G11" s="22">
-        <v>7.0330000000000004</v>
-      </c>
-      <c r="H11" s="22">
-        <v>6.5149999999999997</v>
+      <c r="C11" s="23">
+        <v>1.633</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1.643</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1.667</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1.667</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1.696</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -4056,28 +4092,28 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="22">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="D12" s="22">
-        <v>3.4550000000000001</v>
-      </c>
-      <c r="E12" s="23">
-        <v>3.58</v>
-      </c>
-      <c r="F12" s="23">
-        <v>3.9369999999999998</v>
-      </c>
-      <c r="G12" s="23">
-        <v>3.9780000000000002</v>
-      </c>
-      <c r="H12" s="23">
-        <v>4.4909999999999997</v>
+      <c r="C12" s="23">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.67200000000000004</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4090,28 +4126,28 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22">
-        <v>1.014</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1.014</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1.014</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1.016</v>
-      </c>
-      <c r="G13" s="23">
-        <v>1.016</v>
-      </c>
-      <c r="H13" s="23">
-        <v>1.018</v>
+      <c r="C13" s="23">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1.00502</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1.0050600000000001</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1.0053300000000001</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4124,28 +4160,28 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="22">
-        <v>7.1369999999999996</v>
-      </c>
-      <c r="D14" s="22">
-        <v>7.7089999999999996</v>
-      </c>
-      <c r="E14" s="23">
-        <v>10.335000000000001</v>
-      </c>
-      <c r="F14" s="23">
-        <v>14.803000000000001</v>
-      </c>
-      <c r="G14" s="23">
-        <v>16.716999999999999</v>
-      </c>
-      <c r="H14" s="23">
-        <v>28.536000000000001</v>
+      <c r="C14" s="23">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2.3740000000000001</v>
+      </c>
+      <c r="F14" s="25">
+        <v>4.641</v>
+      </c>
+      <c r="G14" s="25">
+        <v>4.641</v>
+      </c>
+      <c r="H14" s="25">
+        <v>7.1050000000000004</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4158,28 +4194,28 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="22">
-        <v>9.8290000000000006</v>
-      </c>
-      <c r="D15" s="22">
-        <v>9.9120000000000008</v>
-      </c>
-      <c r="E15" s="23">
-        <v>10.226000000000001</v>
-      </c>
-      <c r="F15" s="23">
-        <v>11.023999999999999</v>
-      </c>
-      <c r="G15" s="23">
-        <v>11.122</v>
-      </c>
-      <c r="H15" s="23">
-        <v>12.14</v>
+      <c r="C15" s="23">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2.274</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2.3769999999999998</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4192,28 +4228,28 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="22">
-        <v>18.111000000000001</v>
-      </c>
-      <c r="D16" s="22">
-        <v>17.52</v>
-      </c>
-      <c r="E16" s="23">
-        <v>15.132</v>
-      </c>
-      <c r="F16" s="23">
-        <v>11.92</v>
-      </c>
-      <c r="G16" s="23">
-        <v>10.957000000000001</v>
-      </c>
-      <c r="H16" s="23">
-        <v>7.0940000000000003</v>
+      <c r="C16" s="23">
+        <v>128.21700000000001</v>
+      </c>
+      <c r="D16" s="24">
+        <v>125.295</v>
+      </c>
+      <c r="E16" s="25">
+        <v>114.952</v>
+      </c>
+      <c r="F16" s="25">
+        <v>73.257000000000005</v>
+      </c>
+      <c r="G16" s="25">
+        <v>73.257000000000005</v>
+      </c>
+      <c r="H16" s="25">
+        <v>50.720999999999997</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4226,28 +4262,28 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="22">
-        <v>18.574000000000002</v>
-      </c>
-      <c r="D17" s="22">
-        <v>17.972000000000001</v>
-      </c>
-      <c r="E17" s="23">
-        <v>15.539</v>
-      </c>
-      <c r="F17" s="23">
-        <v>12.27</v>
-      </c>
-      <c r="G17" s="23">
-        <v>11.286</v>
-      </c>
-      <c r="H17" s="23">
-        <v>7.3490000000000002</v>
+      <c r="C17" s="23">
+        <v>104.654</v>
+      </c>
+      <c r="D17" s="24">
+        <v>102.42700000000001</v>
+      </c>
+      <c r="E17" s="25">
+        <v>94.546999999999997</v>
+      </c>
+      <c r="F17" s="25">
+        <v>63.731000000000002</v>
+      </c>
+      <c r="G17" s="25">
+        <v>63.731000000000002</v>
+      </c>
+      <c r="H17" s="25">
+        <v>48.195</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -4260,28 +4296,28 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>6.51</v>
       </c>
       <c r="D18" s="22">
         <v>6.1</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="26">
         <v>5.49</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="26">
+        <v>5.21</v>
+      </c>
+      <c r="G18" s="26">
+        <v>5.01</v>
+      </c>
+      <c r="H18" s="26">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="G18" s="23">
-        <v>4.01</v>
-      </c>
-      <c r="H18" s="23">
-        <v>3.4</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4294,28 +4330,28 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>1.71</v>
       </c>
       <c r="D19" s="22">
         <v>1.8</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="26">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F19" s="23">
-        <v>2.3029999999999999</v>
-      </c>
-      <c r="G19" s="23">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="H19" s="23">
-        <v>2.105</v>
+      <c r="F19" s="26">
+        <v>2.3260000000000001</v>
+      </c>
+      <c r="G19" s="26">
+        <v>2.2909999999999999</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2.052</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4328,7 +4364,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4348,7 +4384,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4368,7 +4404,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4388,9 +4424,13 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>27.6</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -4408,7 +4448,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4428,7 +4468,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4448,7 +4488,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4468,7 +4508,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4488,7 +4528,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4508,7 +4548,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4528,7 +4568,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4548,7 +4588,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4568,7 +4608,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4588,7 +4628,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4626,15 +4666,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1432560</xdr:colOff>
+                <xdr:colOff>1428750</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4653,13 +4693,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1112520</xdr:colOff>
+                <xdr:colOff>1114425</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>236220</xdr:rowOff>
+                <xdr:rowOff>238125</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4676,15 +4716,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>350520</xdr:rowOff>
+                <xdr:rowOff>352425</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4701,13 +4741,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>175260</xdr:colOff>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>480060</xdr:rowOff>
+                <xdr:rowOff>476250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1592580</xdr:colOff>
+                <xdr:colOff>1590675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -4726,15 +4766,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>1409700</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>403860</xdr:rowOff>
+                <xdr:rowOff>400050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4753,13 +4793,13 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1531620</xdr:colOff>
+                <xdr:colOff>1533525</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>335280</xdr:rowOff>
+                <xdr:rowOff>333375</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4776,15 +4816,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>312420</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4803,11 +4843,11 @@
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1661160</xdr:colOff>
+                <xdr:colOff>1657350</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -4826,13 +4866,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>1668780</xdr:colOff>
+                <xdr:colOff>1666875</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>609600</xdr:rowOff>
               </to>
